--- a/data/playground/TestingCombinations.xlsx
+++ b/data/playground/TestingCombinations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1176" yWindow="0" windowWidth="21864" windowHeight="9096" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2352" yWindow="0" windowWidth="21864" windowHeight="9096" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="63">
   <si>
     <t>Amenities</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Normale Spalten</t>
   </si>
   <si>
-    <t>Spalte1</t>
-  </si>
-  <si>
     <t>Test No.</t>
   </si>
   <si>
@@ -159,102 +156,6 @@
     <t>32</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
     <t>Naive Bayes</t>
   </si>
   <si>
@@ -303,13 +204,16 @@
     <t>DENNIS</t>
   </si>
   <si>
-    <t>HELENE</t>
-  </si>
-  <si>
     <t>NADJA</t>
   </si>
   <si>
     <t>TBA</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>MAX</t>
   </si>
 </sst>
 </file>
@@ -333,7 +237,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,8 +256,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor theme="6" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -361,21 +283,131 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -396,18 +428,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A3:J67" totalsRowShown="0">
-  <tableColumns count="10">
-    <tableColumn id="1" name="Test No." dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A3:I67" totalsRowShown="0">
+  <autoFilter ref="A3:I67">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="8">
+      <filters>
+        <filter val="NADJA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Test No." dataDxfId="3"/>
     <tableColumn id="2" name="Normale Spalten"/>
     <tableColumn id="3" name="Amenities"/>
     <tableColumn id="4" name="Transit tfidf"/>
     <tableColumn id="5" name="Description tfidf"/>
     <tableColumn id="6" name="Neighborhood tfidf"/>
     <tableColumn id="7" name="House rules tfidf"/>
-    <tableColumn id="8" name="Spalte1">
-      <calculatedColumnFormula>G4*1+F4*2+E4*4+D4*8+C4*16+B4*32</calculatedColumnFormula>
-    </tableColumn>
     <tableColumn id="9" name=" DONE?"/>
     <tableColumn id="10" name="TASK FOR"/>
   </tableColumns>
@@ -416,9 +462,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="C2:BN7" totalsRowShown="0">
-  <autoFilter ref="C2:BN7"/>
-  <tableColumns count="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="C2:AH8" totalsRowShown="0">
+  <tableColumns count="32">
     <tableColumn id="1" name="1"/>
     <tableColumn id="2" name="2"/>
     <tableColumn id="3" name="3"/>
@@ -440,9 +485,9 @@
     <tableColumn id="19" name="19"/>
     <tableColumn id="20" name="20"/>
     <tableColumn id="21" name="21"/>
-    <tableColumn id="22" name="22"/>
-    <tableColumn id="23" name="23"/>
-    <tableColumn id="24" name="24"/>
+    <tableColumn id="22" name="22" dataDxfId="0"/>
+    <tableColumn id="23" name="23" dataDxfId="2"/>
+    <tableColumn id="24" name="24" dataDxfId="1"/>
     <tableColumn id="25" name="25"/>
     <tableColumn id="26" name="26"/>
     <tableColumn id="27" name="27"/>
@@ -451,38 +496,6 @@
     <tableColumn id="30" name="30"/>
     <tableColumn id="31" name="31"/>
     <tableColumn id="32" name="32"/>
-    <tableColumn id="33" name="33"/>
-    <tableColumn id="34" name="34"/>
-    <tableColumn id="35" name="35"/>
-    <tableColumn id="36" name="36"/>
-    <tableColumn id="37" name="37"/>
-    <tableColumn id="38" name="38"/>
-    <tableColumn id="39" name="39"/>
-    <tableColumn id="40" name="40"/>
-    <tableColumn id="41" name="41"/>
-    <tableColumn id="42" name="42"/>
-    <tableColumn id="43" name="43"/>
-    <tableColumn id="44" name="44"/>
-    <tableColumn id="45" name="45"/>
-    <tableColumn id="46" name="46"/>
-    <tableColumn id="47" name="47"/>
-    <tableColumn id="48" name="48"/>
-    <tableColumn id="49" name="49"/>
-    <tableColumn id="50" name="50"/>
-    <tableColumn id="51" name="51"/>
-    <tableColumn id="52" name="52"/>
-    <tableColumn id="53" name="53"/>
-    <tableColumn id="54" name="54"/>
-    <tableColumn id="55" name="55"/>
-    <tableColumn id="56" name="56"/>
-    <tableColumn id="57" name="57"/>
-    <tableColumn id="58" name="58"/>
-    <tableColumn id="59" name="59"/>
-    <tableColumn id="60" name="60"/>
-    <tableColumn id="61" name="61"/>
-    <tableColumn id="62" name="62"/>
-    <tableColumn id="63" name="63"/>
-    <tableColumn id="64" name="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium25" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -810,22 +823,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54:J67"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.59765625" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" customWidth="1"/>
-    <col min="5" max="5" width="16.09765625" customWidth="1"/>
-    <col min="6" max="6" width="18.69921875" customWidth="1"/>
-    <col min="7" max="7" width="16.3984375" customWidth="1"/>
+    <col min="2" max="2" width="15.8984375" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" customWidth="1"/>
+    <col min="4" max="4" width="10.3984375" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" customWidth="1"/>
+    <col min="7" max="7" width="9.296875" customWidth="1"/>
+    <col min="8" max="8" width="6.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -835,30 +850,28 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -879,16 +892,13 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -910,15 +920,11 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4">
-        <f>G4*1+F4*2+E4*4+D4*8+C4*16+B4*32</f>
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -940,15 +946,11 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5">
-        <f>G5*1+F5*2+E5*4+D5*8+C5*16+B5*32</f>
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -970,15 +972,11 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6">
-        <f t="shared" ref="H6:H67" si="0">G6*1+F6*2+E6*4+D6*8+C6*16+B6*32</f>
-        <v>2</v>
-      </c>
-      <c r="J6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1000,15 +998,11 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="J7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1030,15 +1024,11 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1060,15 +1050,11 @@
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1090,15 +1076,11 @@
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="J10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1120,15 +1102,11 @@
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="J11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1150,15 +1128,11 @@
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="J12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1180,15 +1154,11 @@
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="J13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1210,15 +1180,11 @@
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="J14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1240,15 +1206,11 @@
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="J15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1270,15 +1232,11 @@
       <c r="G16">
         <v>0</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="J16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1300,15 +1258,11 @@
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="J17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1330,15 +1284,11 @@
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="H18">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="J18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1360,15 +1310,11 @@
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="H19">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="J19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1390,15 +1336,11 @@
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="J20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1420,15 +1362,11 @@
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="H21">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="J21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1450,15 +1388,11 @@
       <c r="G22">
         <v>0</v>
       </c>
-      <c r="H22">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="J22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1480,15 +1414,11 @@
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="H23">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="J23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1510,15 +1440,14 @@
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="J24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1540,15 +1469,14 @@
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="H25">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="J25" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1570,15 +1498,14 @@
       <c r="G26">
         <v>0</v>
       </c>
-      <c r="H26">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="J26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>61</v>
+      </c>
+      <c r="I26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1600,15 +1527,14 @@
       <c r="G27">
         <v>1</v>
       </c>
-      <c r="H27">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="J27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1630,15 +1556,14 @@
       <c r="G28">
         <v>0</v>
       </c>
-      <c r="H28">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="J28" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1660,15 +1585,14 @@
       <c r="G29">
         <v>1</v>
       </c>
-      <c r="H29">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="J29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1690,15 +1614,14 @@
       <c r="G30">
         <v>0</v>
       </c>
-      <c r="H30">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="J30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1720,15 +1643,14 @@
       <c r="G31">
         <v>1</v>
       </c>
-      <c r="H31">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="J31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1750,15 +1672,14 @@
       <c r="G32">
         <v>0</v>
       </c>
-      <c r="H32">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="J32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>61</v>
+      </c>
+      <c r="I32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -1780,15 +1701,14 @@
       <c r="G33">
         <v>1</v>
       </c>
-      <c r="H33">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="J33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>61</v>
+      </c>
+      <c r="I33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -1810,15 +1730,14 @@
       <c r="G34">
         <v>0</v>
       </c>
-      <c r="H34">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="J34" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>61</v>
+      </c>
+      <c r="I34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -1840,49 +1759,45 @@
       <c r="G35">
         <v>1</v>
       </c>
-      <c r="H35">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="J35" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="H35" t="s">
+        <v>61</v>
+      </c>
+      <c r="I35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
         <v>33</v>
       </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="J36" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="5">
+        <v>1</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0</v>
+      </c>
+      <c r="H36" s="5"/>
+      <c r="I36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>34</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="5">
         <v>1</v>
       </c>
       <c r="C37">
@@ -1900,19 +1815,15 @@
       <c r="G37">
         <v>1</v>
       </c>
-      <c r="H37">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="J37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>35</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="5">
         <v>1</v>
       </c>
       <c r="C38">
@@ -1930,19 +1841,15 @@
       <c r="G38">
         <v>0</v>
       </c>
-      <c r="H38">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="J38" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>36</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="5">
         <v>1</v>
       </c>
       <c r="C39">
@@ -1960,19 +1867,15 @@
       <c r="G39">
         <v>1</v>
       </c>
-      <c r="H39">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="J39" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>37</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="5">
         <v>1</v>
       </c>
       <c r="C40">
@@ -1990,19 +1893,15 @@
       <c r="G40">
         <v>0</v>
       </c>
-      <c r="H40">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="J40" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>38</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="5">
         <v>1</v>
       </c>
       <c r="C41">
@@ -2020,19 +1919,15 @@
       <c r="G41">
         <v>1</v>
       </c>
-      <c r="H41">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="J41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>39</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="5">
         <v>1</v>
       </c>
       <c r="C42">
@@ -2050,19 +1945,15 @@
       <c r="G42">
         <v>0</v>
       </c>
-      <c r="H42">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="J42" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>40</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="5">
         <v>1</v>
       </c>
       <c r="C43">
@@ -2080,19 +1971,15 @@
       <c r="G43">
         <v>1</v>
       </c>
-      <c r="H43">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="J43" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>41</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="5">
         <v>1</v>
       </c>
       <c r="C44">
@@ -2110,19 +1997,15 @@
       <c r="G44">
         <v>0</v>
       </c>
-      <c r="H44">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="J44" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>42</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="5">
         <v>1</v>
       </c>
       <c r="C45">
@@ -2140,19 +2023,15 @@
       <c r="G45">
         <v>1</v>
       </c>
-      <c r="H45">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="J45" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="5">
         <v>1</v>
       </c>
       <c r="C46">
@@ -2170,19 +2049,15 @@
       <c r="G46">
         <v>0</v>
       </c>
-      <c r="H46">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="J46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="5">
         <v>1</v>
       </c>
       <c r="C47">
@@ -2200,19 +2075,15 @@
       <c r="G47">
         <v>1</v>
       </c>
-      <c r="H47">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="J47" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="5">
         <v>1</v>
       </c>
       <c r="C48">
@@ -2230,19 +2101,15 @@
       <c r="G48">
         <v>0</v>
       </c>
-      <c r="H48">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="J48" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>46</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="5">
         <v>1</v>
       </c>
       <c r="C49">
@@ -2260,19 +2127,15 @@
       <c r="G49">
         <v>1</v>
       </c>
-      <c r="H49">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="J49" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>47</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="5">
         <v>1</v>
       </c>
       <c r="C50">
@@ -2290,19 +2153,15 @@
       <c r="G50">
         <v>0</v>
       </c>
-      <c r="H50">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="J50" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>48</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="5">
         <v>1</v>
       </c>
       <c r="C51">
@@ -2320,19 +2179,15 @@
       <c r="G51">
         <v>1</v>
       </c>
-      <c r="H51">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="J51" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>49</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="5">
         <v>1</v>
       </c>
       <c r="C52">
@@ -2350,19 +2205,15 @@
       <c r="G52">
         <v>0</v>
       </c>
-      <c r="H52">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="J52" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>50</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="5">
         <v>1</v>
       </c>
       <c r="C53">
@@ -2380,19 +2231,15 @@
       <c r="G53">
         <v>1</v>
       </c>
-      <c r="H53">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="J53" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>51</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="5">
         <v>1</v>
       </c>
       <c r="C54">
@@ -2410,19 +2257,15 @@
       <c r="G54">
         <v>0</v>
       </c>
-      <c r="H54">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="J54" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>52</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="5">
         <v>1</v>
       </c>
       <c r="C55">
@@ -2440,19 +2283,15 @@
       <c r="G55">
         <v>1</v>
       </c>
-      <c r="H55">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="J55" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>53</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="5">
         <v>1</v>
       </c>
       <c r="C56">
@@ -2470,19 +2309,15 @@
       <c r="G56">
         <v>0</v>
       </c>
-      <c r="H56">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="J56" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>54</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="5">
         <v>1</v>
       </c>
       <c r="C57">
@@ -2500,19 +2335,15 @@
       <c r="G57">
         <v>1</v>
       </c>
-      <c r="H57">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="J57" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>55</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="5">
         <v>1</v>
       </c>
       <c r="C58">
@@ -2530,19 +2361,15 @@
       <c r="G58">
         <v>0</v>
       </c>
-      <c r="H58">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="J58" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I58" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>56</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="5">
         <v>1</v>
       </c>
       <c r="C59">
@@ -2560,19 +2387,15 @@
       <c r="G59">
         <v>1</v>
       </c>
-      <c r="H59">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="J59" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>57</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="5">
         <v>1</v>
       </c>
       <c r="C60">
@@ -2590,19 +2413,15 @@
       <c r="G60">
         <v>0</v>
       </c>
-      <c r="H60">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="J60" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>58</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="5">
         <v>1</v>
       </c>
       <c r="C61">
@@ -2620,19 +2439,15 @@
       <c r="G61">
         <v>1</v>
       </c>
-      <c r="H61">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="J61" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>59</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="5">
         <v>1</v>
       </c>
       <c r="C62">
@@ -2650,19 +2465,15 @@
       <c r="G62">
         <v>0</v>
       </c>
-      <c r="H62">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="J62" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>60</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="5">
         <v>1</v>
       </c>
       <c r="C63">
@@ -2680,19 +2491,15 @@
       <c r="G63">
         <v>1</v>
       </c>
-      <c r="H63">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="J63" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I63" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>61</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="5">
         <v>1</v>
       </c>
       <c r="C64">
@@ -2710,19 +2517,15 @@
       <c r="G64">
         <v>0</v>
       </c>
-      <c r="H64">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="J64" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I64" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>62</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="5">
         <v>1</v>
       </c>
       <c r="C65">
@@ -2740,19 +2543,15 @@
       <c r="G65">
         <v>1</v>
       </c>
-      <c r="H65">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="J65" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>63</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="5">
         <v>1</v>
       </c>
       <c r="C66">
@@ -2770,19 +2569,15 @@
       <c r="G66">
         <v>0</v>
       </c>
-      <c r="H66">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="J66" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I66" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>64</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="5">
         <v>1</v>
       </c>
       <c r="C67">
@@ -2800,12 +2595,8 @@
       <c r="G67">
         <v>1</v>
       </c>
-      <c r="H67">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="J67" t="s">
-        <v>94</v>
+      <c r="I67" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2824,10 +2615,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:BN7"/>
+  <dimension ref="A2:AH19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2835,242 +2626,412 @@
     <col min="2" max="2" width="18.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>22</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>23</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>24</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>26</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>27</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>28</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>29</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>30</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>31</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>32</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>35</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>37</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>38</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>39</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>40</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>41</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>42</v>
       </c>
-      <c r="AH2" t="s">
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W3" s="7">
+        <v>0.66339999999999999</v>
+      </c>
+      <c r="X3" s="8">
+        <v>0.6431</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>0.66720000000000002</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>0.64529999999999998</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>0.65810000000000002</v>
+      </c>
+      <c r="AB3" s="7">
+        <v>0.66039999999999999</v>
+      </c>
+      <c r="AC3" s="7">
+        <v>0.66490000000000005</v>
+      </c>
+      <c r="AD3" s="7">
+        <v>0.65359999999999996</v>
+      </c>
+      <c r="AE3" s="7">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="AF3" s="7">
+        <v>0.66639999999999999</v>
+      </c>
+      <c r="AG3" s="7">
+        <v>0.68149999999999999</v>
+      </c>
+      <c r="AH3" s="7">
+        <v>0.6845</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="W4" s="7">
+        <v>0.59340000000000004</v>
+      </c>
+      <c r="X4" s="9">
+        <v>0.59109999999999996</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>0.59040000000000004</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>0.59409999999999996</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>0.59409999999999996</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>0.59489999999999998</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>0.59040000000000004</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>0.58730000000000004</v>
+      </c>
+      <c r="AE4" s="7">
+        <v>0.58730000000000004</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>0.59560000000000002</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>0.59489999999999998</v>
+      </c>
+      <c r="AH4" s="7">
+        <v>0.59260000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="W5" s="7">
+        <v>0.72670000000000001</v>
+      </c>
+      <c r="X5" s="8">
+        <v>0.72350000000000003</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>0.72670000000000001</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>0.72289999999999999</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>0.72670000000000001</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>0.72360000000000002</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>0.72670000000000001</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>0.72360000000000002</v>
+      </c>
+      <c r="AE5" s="7">
+        <v>0.72670000000000001</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>0.72360000000000002</v>
+      </c>
+      <c r="AG5" s="7">
+        <v>0.72670000000000001</v>
+      </c>
+      <c r="AH5" s="7">
+        <v>0.72360000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="W6" s="7">
+        <v>0.60019999999999996</v>
+      </c>
+      <c r="X6" s="9">
+        <v>0.61519999999999997</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>0.61970000000000003</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>0.60470000000000002</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>0.61370000000000002</v>
+      </c>
+      <c r="AD6" s="7">
+        <v>0.62350000000000005</v>
+      </c>
+      <c r="AE6" s="7">
+        <v>0.61670000000000003</v>
+      </c>
+      <c r="AF6" s="7">
+        <v>0.62949999999999995</v>
+      </c>
+      <c r="AG6" s="7">
+        <v>0.62119999999999997</v>
+      </c>
+      <c r="AH6" s="7">
+        <v>0.63249999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AK2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AS2" t="s">
+      <c r="C7" t="s">
         <v>54</v>
       </c>
-      <c r="AT2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BA2" t="s">
+      <c r="W7" s="7">
+        <v>0.52259999999999995</v>
+      </c>
+      <c r="X7" s="8">
+        <v>0.52259999999999995</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>0.52259999999999995</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>0.52259999999999995</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>0.52259999999999995</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>0.52259999999999995</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>0.52259999999999995</v>
+      </c>
+      <c r="AD7" s="7">
+        <v>0.52259999999999995</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>0.52259999999999995</v>
+      </c>
+      <c r="AF7" s="7">
+        <v>0.52259999999999995</v>
+      </c>
+      <c r="AG7" s="7">
+        <v>0.52259999999999995</v>
+      </c>
+      <c r="AH7" s="7">
+        <v>0.52259999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="BB2" t="s">
-        <v>63</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>65</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>66</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>68</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>70</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>74</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
+      <c r="W8" s="7">
+        <v>0.72670000000000001</v>
+      </c>
+      <c r="X8" s="9">
+        <v>0.72360000000000002</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>0.72260000000000002</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>0.72289999999999999</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>0.72670000000000001</v>
+      </c>
+      <c r="AB8">
+        <v>71.36</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>0.72670000000000001</v>
+      </c>
+      <c r="AD8" s="7">
+        <v>0.72360000000000002</v>
+      </c>
+      <c r="AE8" s="7">
+        <v>0.72670000000000001</v>
+      </c>
+      <c r="AF8" s="7">
+        <v>0.72360000000000002</v>
+      </c>
+      <c r="AG8" s="7">
+        <v>0.72670000000000001</v>
+      </c>
+      <c r="AH8">
+        <v>72.36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="X10" s="12"/>
+      <c r="Y10" s="11"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="X11" s="12"/>
+      <c r="Y11" s="11"/>
+      <c r="AH11" s="10"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="X12" s="12"/>
+      <c r="Y12" s="11"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="X16" s="11"/>
+      <c r="Y16" s="12"/>
+    </row>
+    <row r="17" spans="24:25" x14ac:dyDescent="0.3">
+      <c r="X17" s="11"/>
+      <c r="Y17" s="12"/>
+    </row>
+    <row r="18" spans="24:25" x14ac:dyDescent="0.3">
+      <c r="X18" s="11"/>
+      <c r="Y18" s="12"/>
+    </row>
+    <row r="19" spans="24:25" x14ac:dyDescent="0.3">
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/playground/TestingCombinations.xlsx
+++ b/data/playground/TestingCombinations.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17668"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wifo\Documents\DM1-Teamproject\data\playground\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kerstinweiher/Documents/GitHub/DM1-Teamproject/data/playground/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1176" yWindow="0" windowWidth="21864" windowHeight="9096" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13680" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
-    <sheet name="Results" sheetId="2" r:id="rId2"/>
+    <sheet name="Result" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>Amenities</t>
   </si>
@@ -279,21 +282,6 @@
     <t>RAUS = 1</t>
   </si>
   <si>
-    <t xml:space="preserve"> 66.34%</t>
-  </si>
-  <si>
-    <t>57.61%</t>
-  </si>
-  <si>
-    <t>60.99%</t>
-  </si>
-  <si>
-    <t>52.33%</t>
-  </si>
-  <si>
-    <t>72.67%</t>
-  </si>
-  <si>
     <t>TASK FOR</t>
   </si>
   <si>
@@ -310,12 +298,18 @@
   </si>
   <si>
     <t>TBA</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>MAX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -365,21 +359,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
-        <family val="2"/>
       </font>
     </dxf>
   </dxfs>
@@ -398,7 +398,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A3:J67" totalsRowShown="0">
   <tableColumns count="10">
-    <tableColumn id="1" name="Test No." dataDxfId="0"/>
+    <tableColumn id="1" name="Test No." dataDxfId="2"/>
     <tableColumn id="2" name="Normale Spalten"/>
     <tableColumn id="3" name="Amenities"/>
     <tableColumn id="4" name="Transit tfidf"/>
@@ -416,10 +416,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="C2:BN7" totalsRowShown="0">
-  <autoFilter ref="C2:BN7"/>
-  <tableColumns count="64">
-    <tableColumn id="1" name="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="C2:BO7" totalsRowShown="0">
+  <autoFilter ref="C2:BO7"/>
+  <tableColumns count="65">
+    <tableColumn id="1" name="1" dataDxfId="1"/>
     <tableColumn id="2" name="2"/>
     <tableColumn id="3" name="3"/>
     <tableColumn id="4" name="4"/>
@@ -483,6 +483,9 @@
     <tableColumn id="62" name="62"/>
     <tableColumn id="63" name="63"/>
     <tableColumn id="64" name="64"/>
+    <tableColumn id="65" name="MAX" dataDxfId="0">
+      <calculatedColumnFormula>MAX(Tabelle6[[#This Row],[1]:[64]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium25" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -812,17 +815,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54:J67"/>
+    <sheetView topLeftCell="A50" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54:I67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.59765625" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" customWidth="1"/>
-    <col min="5" max="5" width="16.09765625" customWidth="1"/>
-    <col min="6" max="6" width="18.69921875" customWidth="1"/>
-    <col min="7" max="7" width="16.3984375" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -885,7 +888,7 @@
         <v>9</v>
       </c>
       <c r="J3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -914,8 +917,11 @@
         <f>G4*1+F4*2+E4*4+D4*8+C4*16+B4*32</f>
         <v>0</v>
       </c>
+      <c r="I4" t="s">
+        <v>90</v>
+      </c>
       <c r="J4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -944,8 +950,11 @@
         <f>G5*1+F5*2+E5*4+D5*8+C5*16+B5*32</f>
         <v>1</v>
       </c>
+      <c r="I5" t="s">
+        <v>90</v>
+      </c>
       <c r="J5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -974,8 +983,11 @@
         <f t="shared" ref="H6:H67" si="0">G6*1+F6*2+E6*4+D6*8+C6*16+B6*32</f>
         <v>2</v>
       </c>
+      <c r="I6" t="s">
+        <v>90</v>
+      </c>
       <c r="J6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1004,8 +1016,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1034,8 +1049,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1064,8 +1082,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
       <c r="J9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1094,8 +1115,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="I10" t="s">
+        <v>90</v>
+      </c>
       <c r="J10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1124,8 +1148,11 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
+      <c r="I11" t="s">
+        <v>90</v>
+      </c>
       <c r="J11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1154,8 +1181,11 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="I12" t="s">
+        <v>90</v>
+      </c>
       <c r="J12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1184,8 +1214,11 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="I13" t="s">
+        <v>90</v>
+      </c>
       <c r="J13" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1215,7 +1248,7 @@
         <v>10</v>
       </c>
       <c r="J14" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1245,7 +1278,7 @@
         <v>11</v>
       </c>
       <c r="J15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1275,7 +1308,7 @@
         <v>12</v>
       </c>
       <c r="J16" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1305,7 +1338,7 @@
         <v>13</v>
       </c>
       <c r="J17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1335,7 +1368,7 @@
         <v>14</v>
       </c>
       <c r="J18" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1365,7 +1398,7 @@
         <v>15</v>
       </c>
       <c r="J19" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1395,7 +1428,7 @@
         <v>16</v>
       </c>
       <c r="J20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1425,7 +1458,7 @@
         <v>17</v>
       </c>
       <c r="J21" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1455,7 +1488,7 @@
         <v>18</v>
       </c>
       <c r="J22" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1485,7 +1518,7 @@
         <v>19</v>
       </c>
       <c r="J23" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1515,7 +1548,7 @@
         <v>20</v>
       </c>
       <c r="J24" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1545,7 +1578,7 @@
         <v>21</v>
       </c>
       <c r="J25" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1575,7 +1608,7 @@
         <v>22</v>
       </c>
       <c r="J26" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1605,7 +1638,7 @@
         <v>23</v>
       </c>
       <c r="J27" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1635,7 +1668,7 @@
         <v>24</v>
       </c>
       <c r="J28" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -1665,7 +1698,7 @@
         <v>25</v>
       </c>
       <c r="J29" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -1695,7 +1728,7 @@
         <v>26</v>
       </c>
       <c r="J30" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -1725,7 +1758,7 @@
         <v>27</v>
       </c>
       <c r="J31" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -1755,7 +1788,7 @@
         <v>28</v>
       </c>
       <c r="J32" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -1785,7 +1818,7 @@
         <v>29</v>
       </c>
       <c r="J33" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -1815,7 +1848,7 @@
         <v>30</v>
       </c>
       <c r="J34" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -1845,7 +1878,7 @@
         <v>31</v>
       </c>
       <c r="J35" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -1875,7 +1908,7 @@
         <v>32</v>
       </c>
       <c r="J36" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -1905,7 +1938,7 @@
         <v>33</v>
       </c>
       <c r="J37" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -1935,7 +1968,7 @@
         <v>34</v>
       </c>
       <c r="J38" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -1965,7 +1998,7 @@
         <v>35</v>
       </c>
       <c r="J39" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -1995,7 +2028,7 @@
         <v>36</v>
       </c>
       <c r="J40" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -2025,7 +2058,7 @@
         <v>37</v>
       </c>
       <c r="J41" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -2055,7 +2088,7 @@
         <v>38</v>
       </c>
       <c r="J42" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -2085,7 +2118,7 @@
         <v>39</v>
       </c>
       <c r="J43" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -2115,7 +2148,7 @@
         <v>40</v>
       </c>
       <c r="J44" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -2145,7 +2178,7 @@
         <v>41</v>
       </c>
       <c r="J45" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -2175,7 +2208,7 @@
         <v>42</v>
       </c>
       <c r="J46" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -2205,7 +2238,7 @@
         <v>43</v>
       </c>
       <c r="J47" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -2235,7 +2268,7 @@
         <v>44</v>
       </c>
       <c r="J48" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -2265,7 +2298,7 @@
         <v>45</v>
       </c>
       <c r="J49" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -2295,7 +2328,7 @@
         <v>46</v>
       </c>
       <c r="J50" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -2325,7 +2358,7 @@
         <v>47</v>
       </c>
       <c r="J51" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -2355,7 +2388,7 @@
         <v>48</v>
       </c>
       <c r="J52" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -2385,7 +2418,7 @@
         <v>49</v>
       </c>
       <c r="J53" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -2415,7 +2448,7 @@
         <v>50</v>
       </c>
       <c r="J54" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -2445,7 +2478,7 @@
         <v>51</v>
       </c>
       <c r="J55" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -2475,7 +2508,7 @@
         <v>52</v>
       </c>
       <c r="J56" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -2505,7 +2538,7 @@
         <v>53</v>
       </c>
       <c r="J57" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -2535,7 +2568,7 @@
         <v>54</v>
       </c>
       <c r="J58" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -2565,7 +2598,7 @@
         <v>55</v>
       </c>
       <c r="J59" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -2595,7 +2628,7 @@
         <v>56</v>
       </c>
       <c r="J60" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -2625,7 +2658,7 @@
         <v>57</v>
       </c>
       <c r="J61" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -2655,7 +2688,7 @@
         <v>58</v>
       </c>
       <c r="J62" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -2685,7 +2718,7 @@
         <v>59</v>
       </c>
       <c r="J63" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -2715,7 +2748,7 @@
         <v>60</v>
       </c>
       <c r="J64" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -2745,7 +2778,7 @@
         <v>61</v>
       </c>
       <c r="J65" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -2775,7 +2808,7 @@
         <v>62</v>
       </c>
       <c r="J66" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -2805,7 +2838,7 @@
         <v>63</v>
       </c>
       <c r="J67" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2814,28 +2847,23 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:BN7"/>
+  <dimension ref="A2:BO9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.296875" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3031,45 +3059,464 @@
       <c r="BN2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="BO2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:67" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="C3" s="5">
+        <v>68.45</v>
+      </c>
+      <c r="D3">
+        <v>68.150000000000006</v>
+      </c>
+      <c r="E3">
+        <v>66.64</v>
+      </c>
+      <c r="F3">
+        <v>67.7</v>
+      </c>
+      <c r="G3">
+        <v>65.36</v>
+      </c>
+      <c r="H3">
+        <v>66.489999999999995</v>
+      </c>
+      <c r="I3">
+        <v>66.040000000000006</v>
+      </c>
+      <c r="J3">
+        <v>65.81</v>
+      </c>
+      <c r="K3">
+        <v>64.53</v>
+      </c>
+      <c r="L3">
+        <v>66.72</v>
+      </c>
+      <c r="BO3">
+        <f>MAX(Tabelle6[[#This Row],[1]:[64]])</f>
+        <v>68.45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:67" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="C4" s="5">
+        <v>59.26</v>
+      </c>
+      <c r="D4">
+        <v>59.49</v>
+      </c>
+      <c r="E4">
+        <v>59.56</v>
+      </c>
+      <c r="F4">
+        <v>58.73</v>
+      </c>
+      <c r="G4">
+        <v>58.73</v>
+      </c>
+      <c r="H4">
+        <v>59.04</v>
+      </c>
+      <c r="I4">
+        <v>59.49</v>
+      </c>
+      <c r="J4">
+        <v>59.41</v>
+      </c>
+      <c r="K4">
+        <v>59.41</v>
+      </c>
+      <c r="L4">
+        <v>59.04</v>
+      </c>
+      <c r="BO4">
+        <f>MAX(Tabelle6[[#This Row],[1]:[64]])</f>
+        <v>59.56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:67" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="C5" s="5">
+        <v>72.36</v>
+      </c>
+      <c r="D5">
+        <v>72.67</v>
+      </c>
+      <c r="E5">
+        <v>72.36</v>
+      </c>
+      <c r="F5">
+        <v>72.67</v>
+      </c>
+      <c r="G5">
+        <v>72.36</v>
+      </c>
+      <c r="H5">
+        <v>72.67</v>
+      </c>
+      <c r="I5">
+        <v>72.36</v>
+      </c>
+      <c r="J5">
+        <v>72.67</v>
+      </c>
+      <c r="K5">
+        <v>72.290000000000006</v>
+      </c>
+      <c r="L5">
+        <v>72.59</v>
+      </c>
+      <c r="BO5">
+        <f>MAX(Tabelle6[[#This Row],[1]:[64]])</f>
+        <v>72.67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:67" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="C6" s="5">
+        <v>63.25</v>
+      </c>
+      <c r="D6">
+        <v>62.12</v>
+      </c>
+      <c r="E6">
+        <v>62.95</v>
+      </c>
+      <c r="F6">
+        <v>61.67</v>
+      </c>
+      <c r="G6">
+        <v>62.35</v>
+      </c>
+      <c r="H6">
+        <v>61.37</v>
+      </c>
+      <c r="I6">
+        <v>61.22</v>
+      </c>
+      <c r="J6">
+        <v>60.47</v>
+      </c>
+      <c r="K6">
+        <v>61.97</v>
+      </c>
+      <c r="L6">
+        <v>61.22</v>
+      </c>
+      <c r="BO6">
+        <f>MAX(Tabelle6[[#This Row],[1]:[64]])</f>
+        <v>63.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:67" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C7" t="s">
-        <v>87</v>
+      <c r="C7" s="5">
+        <v>52.26</v>
+      </c>
+      <c r="D7">
+        <v>52.26</v>
+      </c>
+      <c r="E7">
+        <v>52.26</v>
+      </c>
+      <c r="F7">
+        <v>52.26</v>
+      </c>
+      <c r="G7">
+        <v>52.26</v>
+      </c>
+      <c r="H7">
+        <v>52.26</v>
+      </c>
+      <c r="I7">
+        <v>52.26</v>
+      </c>
+      <c r="J7">
+        <v>52.26</v>
+      </c>
+      <c r="K7">
+        <v>52.26</v>
+      </c>
+      <c r="L7">
+        <v>52.26</v>
+      </c>
+      <c r="BO7">
+        <f>MAX(Tabelle6[[#This Row],[1]:[64]])</f>
+        <v>52.26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="5">
+        <f>MAX(C3:C7)</f>
+        <v>72.36</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" ref="D9:BN9" si="0">MAX(D3:D7)</f>
+        <v>72.67</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>72.36</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>72.67</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="0"/>
+        <v>72.36</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="0"/>
+        <v>72.67</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="0"/>
+        <v>72.36</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="0"/>
+        <v>72.67</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" si="0"/>
+        <v>72.290000000000006</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="0"/>
+        <v>72.59</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AR9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AS9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AV9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AW9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AX9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BA9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BB9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BC9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BD9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BE9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BF9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BG9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BH9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BI9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BK9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BL9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BM9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BN9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
